--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28485" windowHeight="12930"/>
+    <workbookView windowWidth="24345" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t>[已确认] 【iOS】长按出现分时详细后，点击上方切换合约，分时详细不消失</t>
+  </si>
+  <si>
+    <t>激活</t>
+  </si>
+  <si>
+    <t>鞠磊</t>
+  </si>
+  <si>
+    <t>[已确认] 【Android】弹出价格预警输入框时，上方状态栏变为黑色</t>
+  </si>
+  <si>
+    <t>[已确认] 【Android】app在后台一段时间后，打开app会崩溃</t>
+  </si>
+  <si>
+    <t>[已确认] 【Android】涨跌涨幅，希望带上配色</t>
+  </si>
+  <si>
+    <t>[已确认] 【iOS】闭市期间，iOS逐笔浮盈计算有误</t>
+  </si>
+  <si>
+    <t>已关闭</t>
+  </si>
+  <si>
+    <t>[已确认] 【Android】概率出现，美原油主连，显示分时图有误</t>
+  </si>
+  <si>
+    <t>[已确认] 【Android】安卓个推信息，必须打开app时，才能在任务栏显示</t>
+  </si>
+  <si>
+    <t>[已确认] 【iOS】恒生后台，螺纹1910对手价下单，报错“价格超于涨跌停价”</t>
+  </si>
+  <si>
+    <t>[已确认] 【API】后台不传均价的合约，需要app自行计算</t>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>[已确认] 【Android】未有过登录历史情况下，国内期货不默认勾选</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,6 +79,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -41,20 +134,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -62,21 +141,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -92,14 +162,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -111,13 +210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,51 +222,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,25 +232,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,157 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,32 +426,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,7 +456,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,31 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,115 +1025,152 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2">
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3">
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>3</v>
       </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="4:4">
-      <c r="D4">
-        <v>4</v>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5">
-        <v>5</v>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
-      <c r="E6">
-        <v>6</v>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="6:7">
-      <c r="F7">
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>8</v>
+      <c r="D21" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="7:7">
-      <c r="G8">
-        <v>9</v>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="7:7">
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>4</v>
+      <c r="D27" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,48 +16,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
-  <si>
-    <t>[已确认] 【iOS】长按出现分时详细后，点击上方切换合约，分时详细不消失</t>
-  </si>
-  <si>
-    <t>激活</t>
-  </si>
-  <si>
-    <t>鞠磊</t>
-  </si>
-  <si>
-    <t>[已确认] 【Android】弹出价格预警输入框时，上方状态栏变为黑色</t>
-  </si>
-  <si>
-    <t>[已确认] 【Android】app在后台一段时间后，打开app会崩溃</t>
-  </si>
-  <si>
-    <t>[已确认] 【Android】涨跌涨幅，希望带上配色</t>
-  </si>
-  <si>
-    <t>[已确认] 【iOS】闭市期间，iOS逐笔浮盈计算有误</t>
-  </si>
-  <si>
-    <t>已关闭</t>
-  </si>
-  <si>
-    <t>[已确认] 【Android】概率出现，美原油主连，显示分时图有误</t>
-  </si>
-  <si>
-    <t>[已确认] 【Android】安卓个推信息，必须打开app时，才能在任务栏显示</t>
-  </si>
-  <si>
-    <t>[已确认] 【iOS】恒生后台，螺纹1910对手价下单，报错“价格超于涨跌停价”</t>
-  </si>
-  <si>
-    <t>[已确认] 【API】后台不传均价的合约，需要app自行计算</t>
-  </si>
-  <si>
-    <t>已解决</t>
-  </si>
-  <si>
-    <t>[已确认] 【Android】未有过登录历史情况下，国内期货不默认勾选</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>【Android】概率出现，账户信息无法刷新出来</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】点击K线，切换指标，指标线不更改 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】大手数用户登录，非常卡顿，切换至别的页面后回来，恢复正常 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】非持仓页签，不需要加分隔线 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】当前版本，三键下单会报“无网络或交易断开”的toast，实际网络未断开（概率出现） </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】多条同合约持仓，有多有空，对多仓反手后，空仓的可用增加，但是手数没变 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】对合约反手后，该合约的反向仓位未自动刷新出来 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】点击合约出现下拉后，如果该合约刷新，则消失选中效果 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】首条持仓分隔线未对齐（偶现） </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android*】行情处标题、入口文字相关优化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS*】行情处标题、入口文字相关优化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】画线下单默认手数不走设置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android*】云条件单默认手数不走设置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS*】云条件单默认手数不走设置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】持仓均价线，10001手空仓未显示 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】持仓均价线，多仓显示不对 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】持仓列表的排序点击后，不刷新 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】持仓线未自动对坐标轴的变化，而改变位置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】概率出现，勾选“已阅读”后，圈格消失 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS*】持仓页面，在手数与价格之间切换时，需要点击两次 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】设置涨跌幅为昨收/昨结，不该影响下方盘口的昨结字段（应该一直是昨结） </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】设置涨跌幅计算依据昨收之后，上盘口涨跌幅还是依据昨结计算 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】TC咨询展开关闭，附图隐藏效果被重置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】倒计时重置逻辑有误 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】1分钟K线，左右滑动，会重置倒计时 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】横屏下，没有关闭三点属性 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】持仓UI，分隔线应该用细线，与本来的框格线风格一致 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【iOS】横屏后，持仓线的持仓说明框，没有首行对齐 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android*】持仓页面，在手数与价格之间切换时，需要点击两次 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】价格预警的输入框 + - 变成了对手价的 + - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】未登录状态下的侧边栏，风格统一优化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】切换到英文状态下，app启动页面，仍旧是中文 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】当前用户反馈，点进去后，跳转到了极星官网 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】持仓线没有对无效数据过滤 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】分时图长按触发十字光标后，单方向滑动（左/右）后松手，App误认为是切换合约手势 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【Android】画线下单页面，使用了系统返回键后，整个行情页面都退出 </t>
   </si>
 </sst>
 </file>
@@ -65,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +145,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -88,6 +155,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,9 +206,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,28 +243,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -163,30 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,30 +286,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,97 +298,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,79 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,44 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +523,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +571,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,155 +1091,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="102.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="【Android】概率出现，账户信息无法刷新出来" tooltip="https://epolestar.zentaopm.com/bug-view-4210.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,114 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
-    <t>【Android】概率出现，账户信息无法刷新出来</t>
+    <t>[已确认] 【Android】开仓均价受加仓影响，计算不正确</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】点击K线，切换指标，指标线不更改 </t>
+    <t>[已确认] 【Android】持仓列表未对齐</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【Android】大手数用户登录，非常卡顿，切换至别的页面后回来，恢复正常 </t>
+    <t>[已确认] 【Android】银期转账进入就崩溃</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】非持仓页签，不需要加分隔线 </t>
+    <t>[已确认] 【iOS】对已有持仓，加多/加空，会使得其 逐笔浮盈 刷新至0，再次刷新后，恢复成正确值</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】当前版本，三键下单会报“无网络或交易断开”的toast，实际网络未断开（概率出现） </t>
+    <t>[已确认] 【iOS】快买快卖页面下的手数键盘，无法点击下三角，收掉键盘</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】多条同合约持仓，有多有空，对多仓反手后，空仓的可用增加，但是手数没变 </t>
+    <t>[已确认] 【Android】持仓线会因为K线放大，而缩短</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】对合约反手后，该合约的反向仓位未自动刷新出来 </t>
+    <t>[已确认] 【iOS】伦铜3M，无法下止损止盈单</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】点击合约出现下拉后，如果该合约刷新，则消失选中效果 </t>
+    <t>[已确认] 【iOS】自对冲合约，撤单弃权挂单，app崩溃</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【Android】首条持仓分隔线未对齐（偶现） </t>
+    <t>[已确认] 【Android】分时图处左右切换合约，高概率 ANR</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【Android*】行情处标题、入口文字相关优化 </t>
+    <t>[已确认] 【iOS】恒生后台，下单后，可用数不自动刷新</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS*】行情处标题、入口文字相关优化 </t>
+    <t>[已确认] 【iOS*】可自对冲的期权弃权后，撤单无效果</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】画线下单默认手数不走设置 </t>
+    <t>[已确认] 【Android*】可自对冲的期权弃权后，撤单无效果</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【Android*】云条件单默认手数不走设置 </t>
+    <t>[已确认] 【iOS】价格输入框，需要点击两次才能输入，而点击一次时，红框已经选定。会有操作误导</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS*】云条件单默认手数不走设置 </t>
+    <t>[已确认] 【iOS】倒计时，如果当前不在1分线的最右处（最新行情），则K线刷新了，也不会重置倒计时</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】持仓均价线，10001手空仓未显示 </t>
+    <t>[已确认] 【iOS】行情设置中设置涨跌幅为 昨结/昨收，不该影响行情列表中的 最新/昨结 字段</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】持仓均价线，多仓显示不对 </t>
+    <t>[已确认] 【Android*】交易界面，价格选择市价后，无法成功下单</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】持仓列表的排序点击后，不刷新 </t>
+    <t>[已确认] 【iOS*】交易界面，价格选择市价后，无法成功下单</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】持仓线未自动对坐标轴的变化，而改变位置 </t>
+    <t>[已确认] 【iOS】横栏模式的UI图卖价卖量在中间，与实际不符，需要更换</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】概率出现，勾选“已阅读”后，圈格消失 </t>
+    <t>[已确认] 【Android】账号登录，不自动刷新成交页签，必须手点刷新</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS*】持仓页面，在手数与价格之间切换时，需要点击两次 </t>
+    <t>[已确认] 【Android】K线页签太过冗长，希望与iOS一致简洁化</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】设置涨跌幅为昨收/昨结，不该影响下方盘口的昨结字段（应该一直是昨结） </t>
+    <t>[已确认] 【iOS】倒计时40s时进入搜索页面后，停留X秒，返回时倒计时仍旧是40s</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】设置涨跌幅计算依据昨收之后，上盘口涨跌幅还是依据昨结计算 </t>
+    <t>[已确认] 【iOS】倒计时，出现18...后，再也不动</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】TC咨询展开关闭，附图隐藏效果被重置 </t>
+    <t>[已确认] 【Android】英文模式下，合约列表不对齐</t>
   </si>
   <si>
-    <t xml:space="preserve"> 【iOS】倒计时重置逻辑有误 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【iOS】1分钟K线，左右滑动，会重置倒计时 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【iOS】横屏下，没有关闭三点属性 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【iOS】持仓UI，分隔线应该用细线，与本来的框格线风格一致 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【iOS】横屏后，持仓线的持仓说明框，没有首行对齐 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android*】持仓页面，在手数与价格之间切换时，需要点击两次 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】价格预警的输入框 + - 变成了对手价的 + - </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】未登录状态下的侧边栏，风格统一优化 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】切换到英文状态下，app启动页面，仍旧是中文 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】当前用户反馈，点进去后，跳转到了极星官网 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】持仓线没有对无效数据过滤 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】分时图长按触发十字光标后，单方向滑动（左/右）后松手，App误认为是切换合约手势 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【Android】画线下单页面，使用了系统返回键后，整个行情页面都退出 </t>
+    <t>[已确认] 【iOS】价格预警输入，加减号点击无效果了</t>
   </si>
 </sst>
 </file>
@@ -131,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,9 +109,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,8 +132,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +193,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,73 +238,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,7 +262,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,43 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,127 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,13 +456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,8 +474,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +495,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,24 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,139 +573,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -802,6 +769,1046 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1371600"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2400300"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Host Control  3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="3600450"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Host Control  4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5829300"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Host Control  5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="7543800"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Host Control  6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="8915400"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Host Control  7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="9944100"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Host Control  8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="11315700"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Host Control  9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12858750"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Host Control  10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="14230350"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Host Control  11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="15430500"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Host Control  12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="16973550"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Host Control  13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="19202400"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Host Control  14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="21431250"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Host Control  15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="23488650"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Host Control  16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="25031700"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Host Control  17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="26403300"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Host Control  18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="28117800"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Host Control  19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="29832300"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Host Control  20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="31375350"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Host Control  21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="33261300"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Host Control  22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="34632900"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Host Control  23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="36004500"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1091,204 +2098,910 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="102.5" customWidth="1"/>
+    <col min="1" max="1" width="87.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="94.5" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" ht="54" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="6" ht="67.5" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="9" ht="148.5" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" ht="108" customHeight="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" ht="81" customHeight="1" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="21" ht="81" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="24" ht="94.5" customHeight="1" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="27" ht="81" customHeight="1" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="30" ht="67.5" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="33" ht="94.5" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="36" ht="148.5" customHeight="1" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="39" ht="148.5" customHeight="1" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="42" ht="135" customHeight="1" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="45" ht="94.5" customHeight="1" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="48" ht="81" customHeight="1" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="51" ht="108" customHeight="1" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="54" ht="108" customHeight="1" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="57" ht="94.5" customHeight="1" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="60" ht="121.5" customHeight="1" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="63" ht="81" customHeight="1" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="66" ht="81" customHeight="1" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="69" ht="67.5" customHeight="1" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="【Android】概率出现，账户信息无法刷新出来" tooltip="https://epolestar.zentaopm.com/bug-view-4210.html"/>
+    <hyperlink ref="A1" r:id="rId26" display="[已确认] 【Android】开仓均价受加仓影响，计算不正确" tooltip="http://epolestar.zentaopm.com/bug-view-4291.html"/>
+    <hyperlink ref="A3" r:id="rId27" display="[已确认] 【Android】持仓列表未对齐" tooltip="http://epolestar.zentaopm.com/bug-view-4290.html"/>
+    <hyperlink ref="A6" r:id="rId28" display="[已确认] 【Android】银期转账进入就崩溃" tooltip="http://epolestar.zentaopm.com/bug-view-4279.html"/>
+    <hyperlink ref="A9" r:id="rId29" display="[已确认] 【iOS】对已有持仓，加多/加空，会使得其 逐笔浮盈 刷新至0，再次刷新后，恢复成正确值" tooltip="http://epolestar.zentaopm.com/bug-view-4278.html"/>
+    <hyperlink ref="A12" r:id="rId30" display="[已确认] 【iOS】快买快卖页面下的手数键盘，无法点击下三角，收掉键盘" tooltip="http://epolestar.zentaopm.com/bug-view-4277.html"/>
+    <hyperlink ref="A15" r:id="rId31" display="[已确认] 【Android】持仓线会因为K线放大，而缩短" tooltip="http://epolestar.zentaopm.com/bug-view-4275.html"/>
+    <hyperlink ref="A18" r:id="rId32" display="[已确认] 【iOS】伦铜3M，无法下止损止盈单" tooltip="http://epolestar.zentaopm.com/bug-view-4274.html"/>
+    <hyperlink ref="A21" r:id="rId33" display="[已确认] 【iOS】自对冲合约，撤单弃权挂单，app崩溃" tooltip="http://epolestar.zentaopm.com/bug-view-4273.html"/>
+    <hyperlink ref="A24" r:id="rId34" display="[已确认] 【Android】分时图处左右切换合约，高概率 ANR" tooltip="http://epolestar.zentaopm.com/bug-view-4272.html"/>
+    <hyperlink ref="A27" r:id="rId35" display="[已确认] 【iOS】恒生后台，下单后，可用数不自动刷新" tooltip="http://epolestar.zentaopm.com/bug-view-4266.html"/>
+    <hyperlink ref="A30" r:id="rId36" display="[已确认] 【iOS*】可自对冲的期权弃权后，撤单无效果" tooltip="http://epolestar.zentaopm.com/bug-view-4258.html"/>
+    <hyperlink ref="A33" r:id="rId37" display="[已确认] 【Android*】可自对冲的期权弃权后，撤单无效果" tooltip="http://epolestar.zentaopm.com/bug-view-4257.html"/>
+    <hyperlink ref="A36" r:id="rId38" display="[已确认] 【iOS】价格输入框，需要点击两次才能输入，而点击一次时，红框已经选定。会有操作误导" tooltip="http://epolestar.zentaopm.com/bug-view-4256.html"/>
+    <hyperlink ref="A39" r:id="rId39" display="[已确认] 【iOS】倒计时，如果当前不在1分线的最右处（最新行情），则K线刷新了，也不会重置倒计时" tooltip="http://epolestar.zentaopm.com/bug-view-4255.html"/>
+    <hyperlink ref="A42" r:id="rId40" display="[已确认] 【iOS】行情设置中设置涨跌幅为 昨结/昨收，不该影响行情列表中的 最新/昨结 字段" tooltip="http://epolestar.zentaopm.com/bug-view-4254.html"/>
+    <hyperlink ref="A45" r:id="rId41" display="[已确认] 【Android*】交易界面，价格选择市价后，无法成功下单" tooltip="http://epolestar.zentaopm.com/bug-view-4250.html"/>
+    <hyperlink ref="A48" r:id="rId42" display="[已确认] 【iOS*】交易界面，价格选择市价后，无法成功下单" tooltip="http://epolestar.zentaopm.com/bug-view-4249.html"/>
+    <hyperlink ref="A51" r:id="rId43" display="[已确认] 【iOS】横栏模式的UI图卖价卖量在中间，与实际不符，需要更换" tooltip="http://epolestar.zentaopm.com/bug-view-4238.html"/>
+    <hyperlink ref="A54" r:id="rId44" display="[已确认] 【Android】账号登录，不自动刷新成交页签，必须手点刷新" tooltip="http://epolestar.zentaopm.com/bug-view-4237.html"/>
+    <hyperlink ref="A57" r:id="rId45" display="[已确认] 【Android】K线页签太过冗长，希望与iOS一致简洁化" tooltip="http://epolestar.zentaopm.com/bug-view-4234.html"/>
+    <hyperlink ref="A60" r:id="rId46" display="[已确认] 【iOS】倒计时40s时进入搜索页面后，停留X秒，返回时倒计时仍旧是40s" tooltip="http://epolestar.zentaopm.com/bug-view-4227.html"/>
+    <hyperlink ref="A63" r:id="rId47" display="[已确认] 【iOS】倒计时，出现18...后，再也不动" tooltip="http://epolestar.zentaopm.com/bug-view-4226.html"/>
+    <hyperlink ref="A66" r:id="rId48" display="[已确认] 【Android】英文模式下，合约列表不对齐" tooltip="http://epolestar.zentaopm.com/bug-view-4225.html"/>
+    <hyperlink ref="A69" r:id="rId49" display="[已确认] 【iOS】价格预警输入，加减号点击无效果了" tooltip="http://epolestar.zentaopm.com/bug-view-4217.html"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId4">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId5">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId6">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId7">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId8">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId9">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId10">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId11">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId12">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId13">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId14">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId15">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId16">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId17">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId18">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId19">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId20">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId21">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId22">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId23">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId24">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId25">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
@@ -1303,7 +3016,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1320,7 +3033,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="24345" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,102 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">【iOS】没有配置任何指标时，查看TC咨询，页面显示错误 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】每次断线重连，都会将本次交易日所有交易通知提醒都提醒一遍 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】涨跌幅设置为昨收后，涨跌幅标题小字显示不对 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】行情面板的下拉需要增加透明度，当前有遮挡效果 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】从合约列表出直接进入的点价下单，买量、卖量不自动刷新 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】无指标时，上方一栏不需要显示，节省空间看行情图 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】点价下单中的浮盈字段，应该区分投、保，且动态刷新 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS*】指标配置影响历史分时图布局 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android*】指标配置影响历史分时图布局 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】指标配置里，“形态指标”修改为“趋势指标” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】网格线与实际图中值显示，不一致 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】DMI指标，ADXR显示在了第二行、图中坐标轴并非最高点 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】未登录账户时，断开网络再重新连接，概率出现侧边栏一直显示“交易连接已断开” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】横屏下合约滚动条过短 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】点击点价下单，app崩溃 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】红枣合约，止损止盈界面的浮盈计算有误 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】套利合约涨跌幅计算有误 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】二次认证应该显示“信任该设备” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】日线的多日分时图，手势逻辑、停顿时间优化 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】分时图在横屏下切换了合约，回到竖屏，会将右边五档行情又自动打开 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】点价下单页面的，连续开仓按钮，UI优化 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】切换显示多日分时图后，行情点显示位置错乱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】自对冲输入框的数量，黑色主题下配色需要更改，看不清 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】账号首次登录，期权合约，逐笔浮盈都是0.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】无任何指标时，进入TC资讯页面，切换高频、当日、短期等等页签，ANR。且手机发烫严重 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】点价下单中的浮盈字段，不稳定，会刷新成“权益”的数据 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【iOS】BOLL，设置P为2.1，数据错乱 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】BOLL，设置值为0时，会自动恢复成1.0，希望恢复成默认值2.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】不区分投机套保的合约（比如二债1912）交易设置成套保后，点价下单浮盈字段不显示逐笔浮盈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】切换主题时，有明显卡顿，尤其是白色切换为黑色时 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】每次断线重连，未读的消息都要再次显示 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【Android】自选合约添加超过一页，并且自定义排序后，合约会显示重复 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">【Android】历史行情自动填充满屏幕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】分时图 日、月、年等线 需要显示年份 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】断网重连，K线不恢复 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】止损开仓中，框中文字过小 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】iOS登录多账号，闪退 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS*】金仕达后台，资金详情，Android与iOS 不统一 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android*】金仕达后台，资金详情，Android与iOS 不统一 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】行情列表的成交/持仓 不该随涨跌幅变色 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS*】3M合约转换为具体合约，成交价、委托价应该与后台返回结果一致 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android*】3M合约转换为具体合约，成交价、委托价应该与后台返回结果一致 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】咨询页面，输入搜索内容使得下方显示暂无内容，点击暂无内容，app崩溃 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】首次安装，第一次打开一定会报错行情连接失败，但是手机是有网的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】右侧边栏无法拖动， 关于 看不见 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】改单按钮显示异常 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】止损开仓添加止损止盈单时，价格的加减不该固定为0.01变动价 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】止损开仓添加止损止盈单时，希望能自动将当前最新价填入止损价中 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】止损开仓添加止损止盈单时，希望能自动将当前最新价填入止损价中 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】金仕达后台无法撤单，改单操作成功。相同时间安卓可以撤单 </t>
   </si>
 </sst>
 </file>
@@ -124,7 +82,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,16 +91,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,52 +129,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,22 +178,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,32 +213,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +244,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,175 +328,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +435,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,16 +459,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +493,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,52 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,148 +540,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -797,6 +748,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="Host Control  10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5314950"/>
+          <a:ext cx="0" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="Host Control  11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5829300"/>
+          <a:ext cx="0" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,23 +1110,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="101.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" customHeight="1" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1112,6 +1133,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" customHeight="1"/>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>3</v>
@@ -1185,82 +1207,13 @@
     <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
